--- a/assets/xls/2020-08-23-unicorns-race.xlsx
+++ b/assets/xls/2020-08-23-unicorns-race.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\minima\assets\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5599037B-3553-44AB-B756-28FD40AC9ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182D85A-1FBF-4798-8AAD-55CE021A65A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A8DF3A75-44EE-44E8-8510-0F1633397F31}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A8DF3A75-44EE-44E8-8510-0F1633397F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Unicorns" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Investors!$K$2:$L$465</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unicorns!$B$35:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
@@ -31,6 +31,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6978,723 +6987,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" i="1">
-                <a:solidFill>
-                  <a:srgbClr val="14213D"/>
-                </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>% of Unicorns split by Country </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29855775093650866"/>
-          <c:y val="0.20464190116138195"/>
-          <c:w val="0.46396152170415661"/>
-          <c:h val="0.72032115288788179"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Unicorns!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="14213D"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="5D80CB"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AEBFE5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="F3E7CE"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E0C385"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CEA03B"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="CE6E3B"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="856521"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3D1414"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-6DC2-4586-B8D2-BDC04325D55C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.0764032474111238E-2"/>
-                  <c:y val="-0.11082059916616979"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.3358726749022551E-2"/>
-                  <c:y val="2.5094980381713494E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.3674045184859906E-2"/>
-                  <c:y val="0.18381688248174391"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.1728133961813693E-2"/>
-                  <c:y val="0.16944560540960177"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.8050344459985335E-2"/>
-                  <c:y val="0.16290439883031599"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-6.1230515864645035E-2"/>
-                  <c:y val="0.10070305336522666"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.9851659689634233E-2"/>
-                  <c:y val="5.9399829999391196E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.7219296238847394E-2"/>
-                  <c:y val="2.1633483706570956E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.6071618017130148E-2"/>
-                  <c:y val="-2.3583053290868811E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-6DC2-4586-B8D2-BDC04325D55C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="14213D"/>
-                    </a:solidFill>
-                    <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unicorns!$B$4:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>US</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>UK</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Germany</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>South Korea</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Israel</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>France</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Indonesia</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unicorns!$D$4:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.48565573770491804</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24590163934426229</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3278688524590161E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3032786885245901E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.663934426229508E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0491803278688523E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4344262295081968E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4344262295081968E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0245901639344262E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0245901639344262E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.5819672131147542E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DC2-4586-B8D2-BDC04325D55C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFAEB"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1600" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="14213D"/>
@@ -8090,7 +7382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8509,6 +7801,1219 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" i="1">
+                <a:solidFill>
+                  <a:srgbClr val="14213D"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>% of Unicorns ($1bn+ private companies) split by Country </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29855775093650866"/>
+          <c:y val="0.20464190116138195"/>
+          <c:w val="0.46396152170415661"/>
+          <c:h val="0.72032115288788179"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unicorns!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="14213D"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5D80CB"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AEBFE5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F3E7CE"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E0C385"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CEA03B"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CE6E3B"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="856521"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3D1414"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-6DC2-4586-B8D2-BDC04325D55C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0764032474111238E-2"/>
+                  <c:y val="-0.11082059916616979"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5F1DC9BA-347E-4A43-B710-70695C506BFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.3358726749022551E-2"/>
+                  <c:y val="2.5094980381713494E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{26F3DCF2-698A-47F3-ACFD-3E53B58DC1CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3674045184859906E-2"/>
+                  <c:y val="0.18381688248174391"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1483B699-BB70-4D08-8451-16FE9BF2DE17}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1728133961813693E-2"/>
+                  <c:y val="0.16944560540960177"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A376836A-888F-40CB-95C7-DFBE649E8C07}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8050344459985335E-2"/>
+                  <c:y val="0.16290439883031599"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2B2246A4-0CDE-4449-B229-E0C7453DFEA9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1230515864645035E-2"/>
+                  <c:y val="0.10070305336522666"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5C49A48C-8AFC-42CC-A18A-422FFA913750}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9851659689634233E-2"/>
+                  <c:y val="5.9399829999391196E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6BCEB102-58BF-4B74-92A5-EA0D1A20A239}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7219296238847394E-2"/>
+                  <c:y val="2.1633483706570956E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{698216A1-8BF5-4E67-807B-43AD4BA1FE29}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5A6FD595-5673-45C9-8775-483CC5100193}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4B4B5F5C-4F3C-4F60-8FBF-2F022A2099B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6071618017130148E-2"/>
+                  <c:y val="-2.3583053290868811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B463A065-8315-479F-98B3-0002197E0B2B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6DC2-4586-B8D2-BDC04325D55C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="14213D"/>
+                    </a:solidFill>
+                    <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unicorns!$B$4:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Korea</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Israel</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Indonesia</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unicorns!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.48565573770491804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24590163934426229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3278688524590161E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3032786885245901E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.663934426229508E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0491803278688523E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4344262295081968E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4344262295081968E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0245901639344262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0245901639344262E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5819672131147542E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Unicorns!$E$4:$E$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>US, 49% (237)</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>China, 25% (120)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>UK, 5% (26)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>India, 4% (21)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Germany, 3% (13)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>South Korea, 2% (10)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Brazil, 1% (7)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Israel, 1% (7)</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>France, 1% (5)</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Indonesia, 1% (5)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Other, 8% (37)</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DC2-4586-B8D2-BDC04325D55C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unicorns!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Unicorns!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-4181-44E6-8679-AA599AEAA140}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -9176,7 +9681,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9233,7 +9738,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9284,13 +9789,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9301,19 +9799,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9351,7 +9842,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9394,23 +9885,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9515,8 +10005,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9648,20 +10138,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10198,7 +10687,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10255,7 +10744,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10306,6 +10795,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10316,12 +10812,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10359,7 +10862,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10402,22 +10905,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10522,8 +11026,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10655,19 +11159,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10742,42 +11247,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>154780</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>359201</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>81312</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F826F48B-40E2-47F2-8377-F1836670306E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
@@ -10808,7 +11277,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10839,6 +11308,42 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>154780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>359201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81312</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F826F48B-40E2-47F2-8377-F1836670306E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11023,298 +11528,6 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.82772</cdr:x>
-      <cdr:y>0.95305</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.99785</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A365C49-8377-4C12-85DF-AF19095E9350}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7228665" y="5360987"/>
-          <a:ext cx="1504570" cy="252007"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="r"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>©</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> sid-jain.com</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.9552</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.77914</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DF1F77-4141-42B8-9956-462346474B64}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="5373102"/>
-          <a:ext cx="6804433" cy="252007"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Source:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>CB Insights</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0</cdr:x>
       <cdr:y>0.96111</cdr:y>
     </cdr:from>
@@ -11475,7 +11688,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -23295,8 +23508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B550BC-4EE3-4824-8C99-5CF84606C67F}">
   <dimension ref="B3:AK104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U78" sqref="U78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23328,6 +23541,10 @@
         <f t="shared" ref="D4:D15" si="0">C4/$C$15</f>
         <v>0.48565573770491804</v>
       </c>
+      <c r="E4" t="str">
+        <f>B4&amp;", " &amp;TEXT(D4,"0%")&amp;" ("&amp;C4&amp;")"</f>
+        <v>US, 49% (237)</v>
+      </c>
     </row>
     <row r="5" spans="2:37" ht="16.5">
       <c r="B5" s="1" t="s">
@@ -23340,6 +23557,10 @@
         <f t="shared" si="0"/>
         <v>0.24590163934426229</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E14" si="1">B5&amp;", " &amp;TEXT(D5,"0%")&amp;" ("&amp;C5&amp;")"</f>
+        <v>China, 25% (120)</v>
+      </c>
       <c r="AJ5" t="s">
         <v>2069</v>
       </c>
@@ -23356,6 +23577,10 @@
         <f t="shared" si="0"/>
         <v>5.3278688524590161E-2</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>UK, 5% (26)</v>
+      </c>
       <c r="AJ6" t="s">
         <v>2077</v>
       </c>
@@ -23372,6 +23597,10 @@
         <f t="shared" si="0"/>
         <v>4.3032786885245901E-2</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>India, 4% (21)</v>
+      </c>
       <c r="AJ7" t="s">
         <v>2076</v>
       </c>
@@ -23388,6 +23617,10 @@
         <f t="shared" si="0"/>
         <v>2.663934426229508E-2</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Germany, 3% (13)</v>
+      </c>
       <c r="AJ8" t="s">
         <v>2070</v>
       </c>
@@ -23404,6 +23637,10 @@
         <f t="shared" si="0"/>
         <v>2.0491803278688523E-2</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>South Korea, 2% (10)</v>
+      </c>
       <c r="AJ9" t="s">
         <v>2071</v>
       </c>
@@ -23420,6 +23657,10 @@
         <f t="shared" si="0"/>
         <v>1.4344262295081968E-2</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Brazil, 1% (7)</v>
+      </c>
       <c r="AJ10" t="s">
         <v>2072</v>
       </c>
@@ -23436,6 +23677,10 @@
         <f t="shared" si="0"/>
         <v>1.4344262295081968E-2</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Israel, 1% (7)</v>
+      </c>
       <c r="AJ11" t="s">
         <v>2073</v>
       </c>
@@ -23452,6 +23697,10 @@
         <f t="shared" si="0"/>
         <v>1.0245901639344262E-2</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>France, 1% (5)</v>
+      </c>
       <c r="AJ12" t="s">
         <v>2075</v>
       </c>
@@ -23468,6 +23717,10 @@
         <f t="shared" si="0"/>
         <v>1.0245901639344262E-2</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Indonesia, 1% (5)</v>
+      </c>
       <c r="AJ13">
         <v>856521</v>
       </c>
@@ -23484,6 +23737,10 @@
         <f t="shared" si="0"/>
         <v>7.5819672131147542E-2</v>
       </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Other, 8% (37)</v>
+      </c>
       <c r="AJ14" t="s">
         <v>2080</v>
       </c>
@@ -23527,7 +23784,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D49" si="1">C36/$C$50</f>
+        <f t="shared" ref="D36:D49" si="2">C36/$C$50</f>
         <v>0.13934426229508196</v>
       </c>
     </row>
@@ -23539,7 +23796,7 @@
         <v>63</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12909836065573771</v>
       </c>
     </row>
@@ -23551,7 +23808,7 @@
         <v>61</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
     </row>
@@ -23563,7 +23820,7 @@
         <v>58</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11885245901639344</v>
       </c>
     </row>
@@ -23575,7 +23832,7 @@
         <v>36</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3770491803278687E-2</v>
       </c>
     </row>
@@ -23587,7 +23844,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3524590163934427E-2</v>
       </c>
     </row>
@@ -23599,7 +23856,7 @@
         <v>28</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.737704918032787E-2</v>
       </c>
     </row>
@@ -23611,7 +23868,7 @@
         <v>26</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3278688524590161E-2</v>
       </c>
     </row>
@@ -23623,7 +23880,7 @@
         <v>20</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0983606557377046E-2</v>
       </c>
     </row>
@@ -23635,7 +23892,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8934426229508198E-2</v>
       </c>
     </row>
@@ -23647,7 +23904,7 @@
         <v>19</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8934426229508198E-2</v>
       </c>
     </row>
@@ -23659,7 +23916,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8688524590163935E-2</v>
       </c>
     </row>
@@ -23671,7 +23928,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.663934426229508E-2</v>
       </c>
     </row>
@@ -23683,7 +23940,7 @@
         <v>32</v>
       </c>
       <c r="D49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
@@ -23733,7 +23990,7 @@
         <v>18</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" ref="D75:D104" si="2">C75/488</f>
+        <f t="shared" ref="D75:D104" si="3">C75/488</f>
         <v>3.6885245901639344E-2</v>
       </c>
     </row>
@@ -23745,7 +24002,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2786885245901641E-2</v>
       </c>
     </row>
@@ -23757,7 +24014,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0737704918032786E-2</v>
       </c>
     </row>
@@ -23769,7 +24026,7 @@
         <v>15</v>
       </c>
       <c r="D78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0737704918032786E-2</v>
       </c>
     </row>
@@ -23781,7 +24038,7 @@
         <v>14</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8688524590163935E-2</v>
       </c>
     </row>
@@ -23793,7 +24050,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2540983606557378E-2</v>
       </c>
     </row>
@@ -23805,7 +24062,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2540983606557378E-2</v>
       </c>
     </row>
@@ -23817,7 +24074,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2540983606557378E-2</v>
       </c>
     </row>
@@ -23829,7 +24086,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0491803278688523E-2</v>
       </c>
     </row>
@@ -23841,7 +24098,7 @@
         <v>10</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0491803278688523E-2</v>
       </c>
     </row>
@@ -23853,7 +24110,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0491803278688523E-2</v>
       </c>
     </row>
@@ -23865,7 +24122,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0491803278688523E-2</v>
       </c>
     </row>
@@ -23877,7 +24134,7 @@
         <v>10</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0491803278688523E-2</v>
       </c>
     </row>
@@ -23889,7 +24146,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8442622950819672E-2</v>
       </c>
     </row>
@@ -23901,7 +24158,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8442622950819672E-2</v>
       </c>
     </row>
@@ -23913,7 +24170,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
@@ -23925,7 +24182,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
@@ -23937,7 +24194,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
@@ -23949,7 +24206,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
@@ -23961,7 +24218,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
@@ -23973,7 +24230,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4344262295081968E-2</v>
       </c>
     </row>
@@ -23985,7 +24242,7 @@
         <v>7</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4344262295081968E-2</v>
       </c>
     </row>
@@ -23997,7 +24254,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4344262295081968E-2</v>
       </c>
     </row>
@@ -24009,7 +24266,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2295081967213115E-2</v>
       </c>
     </row>
@@ -24021,7 +24278,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2295081967213115E-2</v>
       </c>
     </row>
@@ -24033,7 +24290,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2295081967213115E-2</v>
       </c>
     </row>
@@ -24045,7 +24302,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2295081967213115E-2</v>
       </c>
     </row>
@@ -24057,7 +24314,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0245901639344262E-2</v>
       </c>
     </row>
@@ -24069,7 +24326,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0245901639344262E-2</v>
       </c>
     </row>
@@ -24081,7 +24338,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0245901639344262E-2</v>
       </c>
     </row>
@@ -26725,7 +26982,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="28.5">
       <c r="A104" s="7" t="s">
         <v>259</v>
       </c>
@@ -28359,7 +28616,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="28.5">
       <c r="A168" s="7" t="s">
         <v>378</v>
       </c>
@@ -30534,7 +30791,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" ht="28.5">
       <c r="A255" s="7" t="s">
         <v>532</v>
       </c>
@@ -31359,7 +31616,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" ht="19.149999999999999">
       <c r="A288" s="7" t="s">
         <v>591</v>
       </c>
@@ -32334,7 +32591,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="28.5">
+    <row r="327" spans="1:9" ht="42.75">
       <c r="A327" s="7" t="s">
         <v>658</v>
       </c>
@@ -32767,7 +33024,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="42.75">
+    <row r="344" spans="1:8" ht="57">
       <c r="A344" s="7" t="s">
         <v>689</v>
       </c>
@@ -33350,7 +33607,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" ht="28.5">
       <c r="A367" s="7" t="s">
         <v>727</v>
       </c>
@@ -33587,7 +33844,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" ht="28.5">
       <c r="A376" s="7" t="s">
         <v>741</v>
       </c>
@@ -35106,7 +35363,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" ht="28.5">
       <c r="A435" s="7" t="s">
         <v>846</v>
       </c>
@@ -36179,7 +36436,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" ht="28.5">
       <c r="A478" s="7" t="s">
         <v>920</v>
       </c>

--- a/assets/xls/2020-08-23-unicorns-race.xlsx
+++ b/assets/xls/2020-08-23-unicorns-race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\minima\assets\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8182D85A-1FBF-4798-8AAD-55CE021A65A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0E30F6-79F7-4AD1-AC55-72E5C844582A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A8DF3A75-44EE-44E8-8510-0F1633397F31}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A8DF3A75-44EE-44E8-8510-0F1633397F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Unicorns" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -8462,7 +8462,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8495,7 +8494,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8752,6 +8750,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8767,6 +8770,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8782,6 +8790,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -8797,6 +8810,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -8812,6 +8830,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -8827,6 +8850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -8844,6 +8872,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -8861,6 +8894,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -8878,6 +8916,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -8895,6 +8938,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -8912,6 +8960,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-A448-4322-87DE-D5EF23B795B5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -20725,7 +20778,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4772FD7-BF22-411C-B225-1950229563E1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4772FD7-BF22-411C-B225-1950229563E1}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -20868,7 +20921,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FF2B968-BCA1-48AF-B72E-013BF52B3D91}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FF2B968-BCA1-48AF-B72E-013BF52B3D91}" name="PivotTable7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B466" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -23508,8 +23561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B550BC-4EE3-4824-8C99-5CF84606C67F}">
   <dimension ref="B3:AK104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26982,7 +27035,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="28.5">
+    <row r="104" spans="1:9">
       <c r="A104" s="7" t="s">
         <v>259</v>
       </c>
@@ -28616,7 +28669,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="28.5">
+    <row r="168" spans="1:8">
       <c r="A168" s="7" t="s">
         <v>378</v>
       </c>
@@ -30791,7 +30844,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="28.5">
+    <row r="255" spans="1:9">
       <c r="A255" s="7" t="s">
         <v>532</v>
       </c>
@@ -31616,7 +31669,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="19.149999999999999">
+    <row r="288" spans="1:9">
       <c r="A288" s="7" t="s">
         <v>591</v>
       </c>
@@ -32591,7 +32644,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="42.75">
+    <row r="327" spans="1:9" ht="28.5">
       <c r="A327" s="7" t="s">
         <v>658</v>
       </c>
@@ -33024,7 +33077,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="57">
+    <row r="344" spans="1:8" ht="42.75">
       <c r="A344" s="7" t="s">
         <v>689</v>
       </c>
@@ -33607,7 +33660,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="28.5">
+    <row r="367" spans="1:9">
       <c r="A367" s="7" t="s">
         <v>727</v>
       </c>
@@ -33844,7 +33897,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="28.5">
+    <row r="376" spans="1:8">
       <c r="A376" s="7" t="s">
         <v>741</v>
       </c>
@@ -35363,7 +35416,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="28.5">
+    <row r="435" spans="1:8">
       <c r="A435" s="7" t="s">
         <v>846</v>
       </c>
@@ -36436,7 +36489,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="28.5">
+    <row r="478" spans="1:9">
       <c r="A478" s="7" t="s">
         <v>920</v>
       </c>
